--- a/data/trans_orig/P44AS4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5090B790-BCD4-494A-8FF6-8DE625234151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E84E8FB-988B-46FC-92D3-D9FC778E50D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90826D1D-E147-49B3-BB08-A6C25A19662B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E07EDD2A-3771-4941-9ADE-2D9E9CC8C42E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42C8FBE-10EC-4225-A91C-71CA5FC0B406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91726C0E-6F0C-4AA6-86FF-52AC6765F164}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B698565-0742-452E-961B-356721FCE3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28195E3-81B0-46B8-8D67-A3E913099D0F}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA07CA5C-4236-4339-A19A-406907B9B46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53D47CD-DD92-4475-A921-95FF9483606E}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E84E8FB-988B-46FC-92D3-D9FC778E50D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1A3BB1-F7F1-4BDA-91D1-BCD4A98279B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E07EDD2A-3771-4941-9ADE-2D9E9CC8C42E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10F70CC4-112A-4C68-948D-2F8D05163FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -106,7 +106,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2023 (Tasa respuesta: 0,01%)</t>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91726C0E-6F0C-4AA6-86FF-52AC6765F164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED42A6-C790-4C25-B7BD-BB6A94A9655E}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28195E3-81B0-46B8-8D67-A3E913099D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5024D0-B4F9-4E40-B46F-EEBB6ADD8EA4}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53D47CD-DD92-4475-A921-95FF9483606E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06A2313-DB78-47DA-A36D-32A09739A1D5}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
